--- a/Graph.xlsx
+++ b/Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Jamal Sir\NCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Jamal Sir\NCD Factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0FA8F7-A1F3-44BF-B14B-4D3BA3BF70D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D57FC-AFF2-4FAA-BD7B-3589EC783070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="76000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -403,167 +401,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-92BF-4C2A-8B87-EB186DD9C475}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:tint val="77000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Maldives</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sri Lanka</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Myanmar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Timor</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bangladesh</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Nepal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.80930000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69300000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-92BF-4C2A-8B87-EB186DD9C475}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -871,9 +708,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="76000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -903,9 +738,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -1016,167 +851,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:tint val="77000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$13:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Maldives</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sri Lanka</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Myanmar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Timor</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bangladesh</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Nepal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$13:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.9627</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94100000000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94240000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF3A-4327-BF0A-5F4F0BE3CDBB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -1246,7 +920,6 @@
         <c:axId val="787756256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1302,7 +975,11 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1414,7 +1091,7 @@
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Raised blood cholesterol (hypercholesterolemia)</a:t>
+              <a:t>Raised total blood cholesterol (hypercholesterolemia)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -1482,9 +1159,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="76000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1618,161 +1293,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D70-48D1-8BC2-E5194862D47C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$22:$C$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:tint val="77000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$24:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Sri Lanka</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Myanmar</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Timor</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Bangladesh</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Nepal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$24:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.76300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8881</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D70-48D1-8BC2-E5194862D47C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3505,15 +3025,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>389164</xdr:colOff>
+      <xdr:colOff>416378</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>342899</xdr:rowOff>
+      <xdr:rowOff>220434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>478971</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:colOff>506185</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3540,16 +3060,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593273</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>356508</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3576,15 +3096,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>250370</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236762</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>201385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>35378</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3878,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Graph.xlsx
+++ b/Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Jamal Sir\NCD Factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745D57FC-AFF2-4FAA-BD7B-3589EC783070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF61EE-C11E-4F0B-87B5-D2074CEB76DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Maldives</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Hyperglycemia</t>
+  </si>
+  <si>
+    <t>hypercholesterolemia</t>
   </si>
 </sst>
 </file>
@@ -378,19 +387,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.19070000000000001</c:v>
+                  <c:v>0.18010000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.307</c:v>
+                  <c:v>0.23769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26400000000000001</c:v>
+                  <c:v>0.27929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39300000000000002</c:v>
+                  <c:v>0.39700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21</c:v>
+                  <c:v>0.2041</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.26600000000000001</c:v>
@@ -828,16 +837,16 @@
                   <c:v>3.73E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>6.4100000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>5.5800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>8.7099999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.7599999999999998E-2</c:v>
@@ -1273,19 +1282,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23699999999999999</c:v>
+                  <c:v>0.19939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36699999999999999</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21</c:v>
+                  <c:v>0.1739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28399999999999997</c:v>
+                  <c:v>0.26590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1119</c:v>
+                  <c:v>0.1113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,6 +1502,379 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Distribution of three major NCDs among Southeast Asian adults</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Hypertension</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hyperglycemia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hypercholesterolemia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.27389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31209999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE3C-45E6-94C4-63C9BE5C043B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="98685504"/>
+        <c:axId val="98685144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98685504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98685144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98685144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98685504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
@@ -1511,6 +1893,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2518,6 +2937,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3125,6 +4047,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>823231</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7973F226-F994-FEA8-58A1-764AF3430433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3396,18 +4354,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
@@ -3443,11 +4401,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>0.19070000000000001</v>
+        <v>0.18010000000000001</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C8" si="0">100%-B3</f>
-        <v>0.80930000000000002</v>
+        <v>0.81989999999999996</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
@@ -3461,11 +4419,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>0.307</v>
+        <v>0.23769999999999999</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>0.69300000000000006</v>
+        <v>0.76229999999999998</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -3474,11 +4432,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>0.26400000000000001</v>
+        <v>0.27929999999999999</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>0.73599999999999999</v>
+        <v>0.72070000000000001</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -3487,11 +4445,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>0.39300000000000002</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>0.60699999999999998</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -3500,11 +4458,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>0.21</v>
+        <v>0.2041</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>0.79</v>
+        <v>0.79590000000000005</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -3559,11 +4517,11 @@
         <v>5</v>
       </c>
       <c r="B14" s="4">
-        <v>7.3999999999999996E-2</v>
+        <v>6.4100000000000004E-2</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="1"/>
-        <v>0.92600000000000005</v>
+        <v>0.93589999999999995</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -3572,11 +4530,11 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>5.8999999999999997E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="1"/>
-        <v>0.94100000000000006</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -3585,11 +4543,11 @@
         <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="1"/>
-        <v>0.98499999999999999</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -3598,11 +4556,11 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>8.3000000000000004E-2</v>
+        <v>8.7099999999999997E-2</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="1"/>
-        <v>0.91700000000000004</v>
+        <v>0.91290000000000004</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -3647,11 +4605,11 @@
         <v>5</v>
       </c>
       <c r="B24" s="4">
-        <v>0.23699999999999999</v>
+        <v>0.19939999999999999</v>
       </c>
       <c r="C24" s="4">
         <f>100%-B24</f>
-        <v>0.76300000000000001</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -3660,11 +4618,11 @@
         <v>1</v>
       </c>
       <c r="B25" s="4">
-        <v>0.36699999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="C25" s="4">
         <f>100%-B25</f>
-        <v>0.63300000000000001</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -3673,11 +4631,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="4">
-        <v>0.21</v>
+        <v>0.1739</v>
       </c>
       <c r="C26" s="4">
         <f>100%-B26</f>
-        <v>0.79</v>
+        <v>0.82610000000000006</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="1">
@@ -3689,11 +4647,11 @@
         <v>3</v>
       </c>
       <c r="B27" s="4">
-        <v>0.28399999999999997</v>
+        <v>0.26590000000000003</v>
       </c>
       <c r="C27" s="4">
         <f>100%-B27</f>
-        <v>0.71599999999999997</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -3702,13 +4660,37 @@
         <v>4</v>
       </c>
       <c r="B28" s="4">
-        <v>0.1119</v>
+        <v>0.1113</v>
       </c>
       <c r="C28" s="4">
         <f>100%-B28</f>
-        <v>0.8881</v>
+        <v>0.88870000000000005</v>
       </c>
       <c r="D28" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.27389999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.31209999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
